--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Bregma</t>
   </si>
@@ -305,9 +305,6 @@
     </r>
   </si>
   <si>
-    <t>GND, COMM, R-M1, L-M1</t>
-  </si>
-  <si>
     <t>Anchor, L-M1, GND, COMM, R-M1, EMG, glue, cement</t>
   </si>
   <si>
@@ -327,6 +324,12 @@
   </si>
   <si>
     <t>(Bregma_Y)+(2.0*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>Sex:</t>
+  </si>
+  <si>
+    <t>Drill bit #73: GND, COMM, R-M1, L-M1, OB anchor</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,12 +379,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -434,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -454,10 +451,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -472,13 +469,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -830,13 +824,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>101600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>220134</xdr:rowOff>
+          <xdr:rowOff>222250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1422400</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>239184</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1188,8 +1182,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1220,9 @@
       <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E2" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1295,13 +1291,13 @@
     </row>
     <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.25">
       <c r="D11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>36</v>
@@ -1309,7 +1305,7 @@
     </row>
     <row r="12" spans="1:7" ht="62" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>45</v>
@@ -1326,21 +1322,21 @@
         <v>37</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="62" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
@@ -1469,7 +1465,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>30</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1499,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="4"/>
     </row>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -10,7 +10,7 @@
     <sheet name="implant" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -431,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,9 +452,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1182,8 +1179,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1268,52 +1265,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1321,16 +1318,16 @@
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1338,16 +1335,16 @@
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1465,7 +1462,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="32.5" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>30</v>
       </c>
@@ -1481,12 +1478,12 @@
       <c r="E21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" ht="32.5" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1494,7 +1491,7 @@
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="4"/>
@@ -1511,7 +1508,7 @@
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="4"/>
@@ -1536,14 +1533,17 @@
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Presentation" shapeId="8202" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$24</definedName>
   </definedNames>
@@ -819,22 +822,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:rowOff>196850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1422400</xdr:colOff>
+          <xdr:colOff>1371600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>222250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8202" name="Object 10" hidden="1">
+            <xdr:cNvPr id="8203" name="Object 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8202"/>
+                  <a14:compatExt spid="_x0000_s8203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -856,6 +859,16 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="PowerPoint.Show.12">
+    <oleItems>
+      <oleItem name="'" advise="1" preferPic="1"/>
+    </oleItems>
+  </oleLink>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1180,7 +1193,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1542,33 +1555,33 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Presentation" shapeId="8202" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
+          <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>101600</xdr:colOff>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>222250</xdr:rowOff>
+                <xdr:rowOff>196850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1422400</xdr:colOff>
+                <xdr:colOff>1358900</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>241300</xdr:rowOff>
+                <xdr:rowOff>215900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Presentation" shapeId="8202" r:id="rId4"/>
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
   <tableParts count="2">
+    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -16,6 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -25,7 +26,7 @@
     <author>Kam, Korey</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Bregma</t>
   </si>
@@ -113,37 +114,16 @@
     <t>Lambda</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
     <t>COMM</t>
   </si>
   <si>
-    <t>TARGETS</t>
-  </si>
-  <si>
     <t>Weight (g)</t>
   </si>
   <si>
     <t>ADJ ratio</t>
-  </si>
-  <si>
-    <t>O2 flow</t>
-  </si>
-  <si>
-    <t>ISO%</t>
-  </si>
-  <si>
-    <t>X (mm)</t>
-  </si>
-  <si>
-    <t>Y (mm)</t>
-  </si>
-  <si>
-    <t>Z (mm, from skull plane)</t>
   </si>
   <si>
     <t>CCMS Cage#</t>
@@ -160,33 +140,6 @@
     <t>Date of implant:</t>
   </si>
   <si>
-    <t xml:space="preserve">Drill Sequence: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implant Sequence: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin-Out Sequence: </t>
-  </si>
-  <si>
-    <t>EMG</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>0.1mm</t>
-  </si>
-  <si>
     <t>X (A-&gt;P) 0.X mm sigfig</t>
   </si>
   <si>
@@ -203,15 +156,6 @@
   </si>
   <si>
     <t>DoB:</t>
-  </si>
-  <si>
-    <t>COMM &amp; R-M1 in block: R-PC, GND, EMG</t>
-  </si>
-  <si>
-    <t>L-M1</t>
-  </si>
-  <si>
-    <t>R-M1</t>
   </si>
   <si>
     <t>(Bregma_Z)-0.0 = _____</t>
@@ -241,15 +185,6 @@
     </r>
   </si>
   <si>
-    <t>Quality control/Acceptance criteria:</t>
-  </si>
-  <si>
-    <t>Criterion</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>__________</t>
   </si>
   <si>
@@ -293,36 +228,12 @@
 _____</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify Tilt: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>±2.0 mm lateral of sagital suture, measure Z</t>
-    </r>
-  </si>
-  <si>
-    <t>Anchor, L-M1, GND, COMM, R-M1, EMG, glue, cement</t>
-  </si>
-  <si>
     <t xml:space="preserve">EEG screws to pin tail (1.5cm) </t>
   </si>
   <si>
     <t>EMG/EEG-Ch3&amp;6</t>
   </si>
   <si>
-    <t>RM1/EEG-Ch2</t>
-  </si>
-  <si>
-    <t>LM1/EEG-Ch1</t>
-  </si>
-  <si>
     <t>(Bregma_X)+(1.5*adjust_ratio) = _____</t>
   </si>
   <si>
@@ -332,7 +243,43 @@
     <t>Sex:</t>
   </si>
   <si>
-    <t>Drill bit #73: GND, COMM, R-M1, L-M1, OB anchor</t>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>¨</t>
+  </si>
+  <si>
+    <t>O2 flow (L/min)</t>
+  </si>
+  <si>
+    <t>ISO% (of O2)</t>
+  </si>
+  <si>
+    <t>Pinout</t>
+  </si>
+  <si>
+    <t>RM1/EEG-Ch1</t>
+  </si>
+  <si>
+    <t>LM1/EEG-Ch2</t>
+  </si>
+  <si>
+    <t>1st in Loc5</t>
+  </si>
+  <si>
+    <t>2nd in Loc2</t>
+  </si>
+  <si>
+    <t>3rd in Loc1</t>
+  </si>
+  <si>
+    <t>0.1/30g mouse</t>
+  </si>
+  <si>
+    <t>0.5/30g mouse</t>
   </si>
 </sst>
 </file>
@@ -387,22 +334,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <strike/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,18 +357,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -434,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -448,18 +383,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -469,24 +395,35 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="9">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -496,15 +433,11 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -514,15 +447,11 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -532,123 +461,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -752,15 +565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2082799</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31019</xdr:rowOff>
+      <xdr:rowOff>132619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1426632</xdr:colOff>
+      <xdr:colOff>670982</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>44448</xdr:rowOff>
+      <xdr:rowOff>146048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,8 +597,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9948332" y="31019"/>
-          <a:ext cx="1485900" cy="1029429"/>
+          <a:off x="9436099" y="132619"/>
+          <a:ext cx="1509183" cy="1029429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,9 +641,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:colOff>1244600</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -872,29 +685,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D6:G14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="D6:G14"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="11"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="10"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A15:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A15:G24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:G26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A19:G26"/>
+  <sortState ref="A20:F27">
+    <sortCondition ref="D6:D14"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="TARGETS" dataDxfId="6"/>
-    <tableColumn id="2" name="X (mm)" dataDxfId="5"/>
-    <tableColumn id="3" name="Y (mm)" dataDxfId="4"/>
-    <tableColumn id="4" name="Z (mm, from skull plane)" dataDxfId="3"/>
-    <tableColumn id="5" name="Quality control/Acceptance criteria:" dataDxfId="2"/>
-    <tableColumn id="6" name="Criterion" dataDxfId="1"/>
-    <tableColumn id="7" name="notes" dataDxfId="0"/>
+    <tableColumn id="1" name="Location" dataDxfId="6"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="3"/>
+    <tableColumn id="5" name="Sequence" dataDxfId="2"/>
+    <tableColumn id="6" name="Done?" dataDxfId="1"/>
+    <tableColumn id="7" name="Pinout" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,7 +996,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1201,352 +1004,314 @@
     <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="25" style="1"/>
+    <col min="6" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="6" t="s">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.25">
-      <c r="D11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="C26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="32.5" x14ac:dyDescent="0.5">
-      <c r="A21" s="4">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.5" x14ac:dyDescent="0.5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="63.5" x14ac:dyDescent="0.5">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="B24" s="4">
-        <f>A21/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+      <c r="D26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="11">
+        <v>5</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1555,8 +1320,8 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
-          <objectPr defaultSize="0" dde="1" r:id="rId4">
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1566,22 +1331,21 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1358900</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>215900</xdr:rowOff>
+                <xdr:colOff>1244600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -13,10 +13,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -995,7 +994,7 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1311,7 +1310,7 @@
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1320,7 +1319,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1340,7 +1339,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Bregma</t>
   </si>
@@ -203,10 +203,6 @@
 _____</t>
   </si>
   <si>
-    <t>(Bregma_X)+(1.1*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
     <t>(Lambda_X)-(1.5*adjust_ratio) =
  _____</t>
   </si>
@@ -279,6 +275,13 @@
   </si>
   <si>
     <t>0.5/30g mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_X)+(1.1*adjust_ratio) =
+</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)-(2.0*adjust_ratio) =</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1244600</xdr:colOff>
+          <xdr:colOff>1295400</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
@@ -995,7 +998,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1046,10 +1049,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,10 +1079,10 @@
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1140,13 +1143,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
@@ -1166,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1187,88 +1190,88 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="62" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="11">
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="31" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>17</v>
@@ -1277,30 +1280,30 @@
         <v>4</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="11">
         <v>5</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -1310,7 +1313,7 @@
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1330,7 +1333,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1244600</xdr:colOff>
+                <xdr:colOff>1295400</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>63500</xdr:rowOff>
               </to>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -271,9 +271,6 @@
     <t>3rd in Loc1</t>
   </si>
   <si>
-    <t>0.1/30g mouse</t>
-  </si>
-  <si>
     <t>0.5/30g mouse</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>(Bregma_Y)-(2.0*adjust_ratio) =</t>
+  </si>
+  <si>
+    <t>0.1mL/30g mouse</t>
   </si>
 </sst>
 </file>
@@ -997,8 +997,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H14" sqref="G14:H14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -1291,10 +1291,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>27</v>
@@ -1312,7 +1312,7 @@
     <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koreykam/Documents/GitHub/KamLab/_Experiments/_Surgery/_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="10180"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
@@ -13,9 +18,17 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -291,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +362,12 @@
       <sz val="20"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -639,7 +658,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>63500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -658,7 +677,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -666,6 +685,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -748,12 +778,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -783,12 +813,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -992,30 +1022,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1058,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1041,7 +1071,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1">
         <v>30</v>
       </c>
@@ -1069,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1085,19 +1115,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1105,7 +1135,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1113,7 +1143,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1121,7 +1151,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1129,7 +1159,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1203,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1224,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -1263,7 +1293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1286,7 +1316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1309,11 +1339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1329,7 +1360,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>196850</xdr:rowOff>
+                <xdr:rowOff>203200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
@@ -1349,5 +1380,10 @@
   <tableParts count="1">
     <tablePart r:id="rId5"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koreykam/Documents/GitHub/KamLab/_Experiments/_Surgery/_templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
@@ -22,9 +17,6 @@
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -677,7 +669,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -685,17 +677,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1028,20 +1009,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
@@ -1182,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1184,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1205,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="62" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -1293,7 +1274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1316,7 +1297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1340,7 +1321,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -1320,12 +1320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1335,7 +1335,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
+          <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
